--- a/testEXLS/2025_otchet_result.xlsx
+++ b/testEXLS/2025_otchet_result.xlsx
@@ -1161,11 +1161,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ул. Правды дом 20</t>
+          <t>Ул. Правды дом 18/3</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1060370.514878339</v>
+        <v>-1397062.763429031</v>
       </c>
       <c r="C57" t="n">
         <v>1663108.493429031</v>
@@ -1174,11 +1174,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Ул. Правды дом 20/1</t>
+          <t>Ул. Правды дом 20</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1096446.706910722</v>
+        <v>-1060370.514878339</v>
       </c>
       <c r="C58" t="n">
         <v>2132729.204878339</v>
@@ -1187,11 +1187,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Ул. Правды дом 20/2</t>
+          <t>Ул. Правды дом 20/1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-768903.5183250437</v>
+        <v>-1096446.706910722</v>
       </c>
       <c r="C59" t="n">
         <v>892883.6769107223</v>
@@ -1200,11 +1200,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ул. Правды дом 25</t>
+          <t>Ул. Правды дом 20/2</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4738394.859499951</v>
+        <v>-768903.5183250437</v>
       </c>
       <c r="C60" t="n">
         <v>714627.6383250438</v>
@@ -1213,11 +1213,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Ул. Правды дом 25/1</t>
+          <t>Ул. Правды дом 25</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>893.5589472000138</v>
+        <v>4738394.859499951</v>
       </c>
       <c r="C61" t="n">
         <v>3138343.500500049</v>
@@ -1226,11 +1226,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Ул. Правды дом 25/2</t>
+          <t>Ул. Правды дом 25/1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>247961.3932159997</v>
+        <v>893.5589472000138</v>
       </c>
       <c r="C62" t="n">
         <v>464802.6510528</v>
@@ -1239,11 +1239,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ул. Правды дом 31/1</t>
+          <t>Ул. Правды дом 25/2</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-1594058.088141699</v>
+        <v>247961.3932159997</v>
       </c>
       <c r="C63" t="n">
         <v>1193835.026784</v>
@@ -1252,11 +1252,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ул. Таллинская дом 4</t>
+          <t>Ул. Правды дом 31/1</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-289559.4565535452</v>
+        <v>-1594058.088141699</v>
       </c>
       <c r="C64" t="n">
         <v>940566.0281416988</v>
@@ -1265,11 +1265,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Ул. Таллинская дом 6</t>
+          <t>Ул. Таллинская дом 4</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-245838.9649488546</v>
+        <v>-289559.4565535452</v>
       </c>
       <c r="C65" t="n">
         <v>953306.3365535452</v>
@@ -1278,11 +1278,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ул. Таллинская дом 7</t>
+          <t>Ул. Таллинская дом 6</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-930069.7900811618</v>
+        <v>-245838.9649488546</v>
       </c>
       <c r="C66" t="n">
         <v>535171.7949488546</v>
@@ -1291,11 +1291,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ул. Таллинская дом 14</t>
+          <t>Ул. Таллинская дом 7</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-905827.1090838683</v>
+        <v>-930069.7900811618</v>
       </c>
       <c r="C67" t="n">
         <v>696473.6800811618</v>
@@ -1304,11 +1304,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ул. Таллинская дом 21</t>
+          <t>Ул. Таллинская дом 14</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-652016.2025373798</v>
+        <v>-905827.1090838683</v>
       </c>
       <c r="C68" t="n">
         <v>488991.3990838684</v>
@@ -1317,11 +1317,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ул. Таллинская дом 21/а</t>
+          <t>Ул. Таллинская дом 21</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-807536.9627845804</v>
+        <v>-652016.2025373798</v>
       </c>
       <c r="C69" t="n">
         <v>754337.5525373798</v>
@@ -1330,11 +1330,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ул. Таллинская дом 23</t>
+          <t>Ул. Таллинская дом 21/а</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-413675.4408727934</v>
+        <v>-807536.9627845804</v>
       </c>
       <c r="C70" t="n">
         <v>489972.0527845805</v>
@@ -1343,11 +1343,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ул. Таллинская дом 23/а</t>
+          <t>Ул. Таллинская дом 23</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-1571036.596173495</v>
+        <v>-413675.4408727934</v>
       </c>
       <c r="C71" t="n">
         <v>718765.6797963966</v>
@@ -1356,11 +1356,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ул. Таллинская дом 23/б</t>
+          <t>Ул. Таллинская дом 23/а</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1827719.886706819</v>
+        <v>-1571036.596173495</v>
       </c>
       <c r="C72" t="n">
         <v>1025888.846173495</v>
@@ -1369,11 +1369,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Ул. Таллинская дом 24/1</t>
+          <t>Ул. Таллинская дом 23/б</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>538433.1148584762</v>
+        <v>-1827719.886706819</v>
       </c>
       <c r="C73" t="n">
         <v>619606.546706819</v>
@@ -1382,11 +1382,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ул. Таллинская дом 26/1</t>
+          <t>Ул. Таллинская дом 24/1</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>370012.2072245252</v>
+        <v>538433.1148584762</v>
       </c>
       <c r="C74" t="n">
         <v>411120.9451415237</v>
@@ -1395,11 +1395,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ул. Таллинская дом 28/1</t>
+          <t>Ул. Таллинская дом 26/1</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>17923.02285572852</v>
+        <v>370012.2072245252</v>
       </c>
       <c r="C75" t="n">
         <v>382619.9427754749</v>
@@ -1408,11 +1408,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ул. Ухтомского дом 26</t>
+          <t>Ул. Таллинская дом 28/1</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>710374.2118670251</v>
+        <v>17923.02285572852</v>
       </c>
       <c r="C76" t="n">
         <v>436232.7371442715</v>
@@ -1421,11 +1421,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ул. Центральная дом 1/2</t>
+          <t>Ул. Ухтомского дом 26</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-4365715.132394105</v>
+        <v>710374.2118670251</v>
       </c>
       <c r="C77" t="n">
         <v>3579365.638132975</v>
@@ -1434,11 +1434,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ул. Центральная дом 6/1</t>
+          <t>Ул. Центральная дом 1/2</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-1419770.990845178</v>
+        <v>-4365715.132394105</v>
       </c>
       <c r="C78" t="n">
         <v>1640380.482394106</v>
@@ -1447,17 +1447,25 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ул. Центральная дом 18/1</t>
+          <t>Ул. Центральная дом 6/1</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-2095273.510880871</v>
+        <v>-1419770.990845178</v>
       </c>
       <c r="C79" t="n">
         <v>871319.5008451777</v>
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ул. Центральная дом 18/1</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-2095273.510880871</v>
+      </c>
       <c r="C80" t="n">
         <v>726802.4108808713</v>
       </c>

--- a/testEXLS/2025_otchet_result.xlsx
+++ b/testEXLS/2025_otchet_result.xlsx
@@ -46,8 +46,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,22 +427,28 @@
     <col width="40" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>улица</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>сальдо</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>расход</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>адрес</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Сальдо на конец  периода (экономия +), (перерасход -) от начисленного</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИТОГО стоимость услуг в год с НДС </t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Выручка по содержаниею жилых помещений (начислено)</t>
         </is>
       </c>
     </row>
@@ -450,10 +459,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-157966.9366458881</v>
+        <v>-145996.9590601494</v>
       </c>
       <c r="C2" t="n">
-        <v>382557.636645888</v>
+        <v>401910.7790601494</v>
+      </c>
+      <c r="D2" t="n">
+        <v>285632.85</v>
       </c>
     </row>
     <row r="3">
@@ -463,10 +475,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-122774.3515376001</v>
+        <v>-93316.90611180809</v>
       </c>
       <c r="C3" t="n">
-        <v>467050.6715376001</v>
+        <v>473472.6261118081</v>
+      </c>
+      <c r="D3" t="n">
+        <v>324917.26</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +491,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>478847.537088</v>
+        <v>338996.6128959975</v>
       </c>
       <c r="C4" t="n">
-        <v>497458.842912</v>
+        <v>629154.8971040025</v>
+      </c>
+      <c r="D4" t="n">
+        <v>502678.25</v>
       </c>
     </row>
     <row r="5">
@@ -489,10 +507,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1204695.256450602</v>
+        <v>-1220633.009690825</v>
       </c>
       <c r="C5" t="n">
-        <v>418669.0964506021</v>
+        <v>466685.7296908246</v>
+      </c>
+      <c r="D5" t="n">
+        <v>320399.64</v>
       </c>
     </row>
     <row r="6">
@@ -502,10 +523,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750746.6992594739</v>
+        <v>-715439.5317326429</v>
       </c>
       <c r="C6" t="n">
-        <v>454955.169259474</v>
+        <v>413243.3917326429</v>
+      </c>
+      <c r="D6" t="n">
+        <v>319208.76</v>
       </c>
     </row>
     <row r="7">
@@ -515,10 +539,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-473901.2215060324</v>
+        <v>-351957.2525500387</v>
       </c>
       <c r="C7" t="n">
-        <v>435658.8415060324</v>
+        <v>376710.9525500387</v>
+      </c>
+      <c r="D7" t="n">
+        <v>205429.9</v>
       </c>
     </row>
     <row r="8">
@@ -528,10 +555,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-385883.7492584966</v>
+        <v>-492319.7420069587</v>
       </c>
       <c r="C8" t="n">
-        <v>367899.8892584966</v>
+        <v>474335.8820069587</v>
+      </c>
+      <c r="D8" t="n">
+        <v>324557.04</v>
       </c>
     </row>
     <row r="9">
@@ -541,10 +571,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3337765.381170123</v>
+        <v>3201604.689693217</v>
       </c>
       <c r="C9" t="n">
-        <v>1735519.474394938</v>
+        <v>2049677.995871845</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1671980.64</v>
       </c>
     </row>
     <row r="10">
@@ -554,10 +587,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1158560.903547565</v>
+        <v>-981145.6198012002</v>
       </c>
       <c r="C10" t="n">
-        <v>595110.5335475649</v>
+        <v>448685.1298012003</v>
+      </c>
+      <c r="D10" t="n">
+        <v>292743.58</v>
       </c>
     </row>
     <row r="11">
@@ -567,10 +603,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1389719.861427685</v>
+        <v>-1459448.101488742</v>
       </c>
       <c r="C11" t="n">
-        <v>745740.3314276849</v>
+        <v>822622.8814887422</v>
+      </c>
+      <c r="D11" t="n">
+        <v>446208.48</v>
       </c>
     </row>
     <row r="12">
@@ -580,10 +619,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1412773.443949865</v>
+        <v>-1139784.570016296</v>
       </c>
       <c r="C12" t="n">
-        <v>1245134.383949865</v>
+        <v>1058239.760016296</v>
+      </c>
+      <c r="D12" t="n">
+        <v>807657.8800000001</v>
       </c>
     </row>
     <row r="13">
@@ -593,10 +635,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1189943.50237892</v>
+        <v>-1436643.250037907</v>
       </c>
       <c r="C13" t="n">
-        <v>1034137.40237892</v>
+        <v>1362235.780037907</v>
+      </c>
+      <c r="D13" t="n">
+        <v>648502.88</v>
       </c>
     </row>
     <row r="14">
@@ -606,10 +651,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-907028.2359879484</v>
+        <v>-1040015.48165566</v>
       </c>
       <c r="C14" t="n">
-        <v>631687.3559879484</v>
+        <v>764674.4416556599</v>
+      </c>
+      <c r="D14" t="n">
+        <v>379457.52</v>
       </c>
     </row>
     <row r="15">
@@ -619,10 +667,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>408037.8921856779</v>
+        <v>398659.3376260023</v>
       </c>
       <c r="C15" t="n">
-        <v>953406.3578143221</v>
+        <v>985837.5223739976</v>
+      </c>
+      <c r="D15" t="n">
+        <v>723919.4399999999</v>
       </c>
     </row>
     <row r="16">
@@ -632,10 +683,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-563335.3157971641</v>
+        <v>-600525.1982288783</v>
       </c>
       <c r="C16" t="n">
-        <v>801349.465797164</v>
+        <v>924885.5382288783</v>
+      </c>
+      <c r="D16" t="n">
+        <v>791267.72</v>
       </c>
     </row>
     <row r="17">
@@ -645,10 +699,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1659541.349368718</v>
+        <v>-1743365.506880555</v>
       </c>
       <c r="C17" t="n">
-        <v>1343090.919368718</v>
+        <v>1581872.266880555</v>
+      </c>
+      <c r="D17" t="n">
+        <v>680362.26</v>
       </c>
     </row>
     <row r="18">
@@ -658,10 +715,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-847427.1661412034</v>
+        <v>-902537.27919328</v>
       </c>
       <c r="C18" t="n">
-        <v>777807.1361412033</v>
+        <v>895641.25919328</v>
+      </c>
+      <c r="D18" t="n">
+        <v>537906.08</v>
       </c>
     </row>
     <row r="19">
@@ -671,10 +731,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1366083.2619568</v>
+        <v>-1503558.557537016</v>
       </c>
       <c r="C19" t="n">
-        <v>798201.4319568001</v>
+        <v>1005708.897537016</v>
+      </c>
+      <c r="D19" t="n">
+        <v>638320.14</v>
       </c>
     </row>
     <row r="20">
@@ -684,10 +747,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68854.55919912434</v>
+        <v>1018.329088359838</v>
       </c>
       <c r="C20" t="n">
-        <v>302390.8008008756</v>
+        <v>399339.1109116402</v>
+      </c>
+      <c r="D20" t="n">
+        <v>275791.9</v>
       </c>
     </row>
     <row r="21">
@@ -697,10 +763,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1453659.2629312</v>
+        <v>-1711391.623040772</v>
       </c>
       <c r="C21" t="n">
-        <v>897369.6429312</v>
+        <v>1153239.773040772</v>
+      </c>
+      <c r="D21" t="n">
+        <v>569909.95</v>
       </c>
     </row>
     <row r="22">
@@ -710,10 +779,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53261.70511519979</v>
+        <v>-277764.621849834</v>
       </c>
       <c r="C22" t="n">
-        <v>1120133.2648848</v>
+        <v>1582718.671849834</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1105999.4</v>
       </c>
     </row>
     <row r="23">
@@ -723,10 +795,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2068155.0568352</v>
+        <v>-2224037.313379247</v>
       </c>
       <c r="C23" t="n">
-        <v>859828.4468352001</v>
+        <v>1108542.703379247</v>
+      </c>
+      <c r="D23" t="n">
+        <v>568005.0600000001</v>
       </c>
     </row>
     <row r="24">
@@ -736,10 +811,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1799727.851810548</v>
+        <v>-1485491.039436849</v>
       </c>
       <c r="C24" t="n">
-        <v>883316.8618105483</v>
+        <v>619526.3594368487</v>
+      </c>
+      <c r="D24" t="n">
+        <v>505501.34</v>
       </c>
     </row>
     <row r="25">
@@ -749,10 +827,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-397623.6902903242</v>
+        <v>-621601.6605843453</v>
       </c>
       <c r="C25" t="n">
-        <v>672411.1702903241</v>
+        <v>955392.0105843453</v>
+      </c>
+      <c r="D25" t="n">
+        <v>595497.12</v>
       </c>
     </row>
     <row r="26">
@@ -762,10 +843,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>256449.5049741196</v>
+        <v>178021.368514789</v>
       </c>
       <c r="C26" t="n">
-        <v>763600.7850258803</v>
+        <v>919312.451485211</v>
+      </c>
+      <c r="D26" t="n">
+        <v>775217.54</v>
       </c>
     </row>
     <row r="27">
@@ -775,23 +859,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-234616.4182531984</v>
+        <v>-531796.4568867931</v>
       </c>
       <c r="C27" t="n">
-        <v>576576.6582531985</v>
+        <v>868399.8468867932</v>
+      </c>
+      <c r="D27" t="n">
+        <v>584922.64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ул. Мусоргского дом 13/а</t>
-        </is>
-      </c>
-      <c r="B28" t="e">
-        <v>#N/A</v>
+          <t>Ул. Мусоргского дом 13/А</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-6772.554490339593</v>
       </c>
       <c r="C28" t="n">
-        <v>749191.5184563247</v>
+        <v>746494.8544903398</v>
+      </c>
+      <c r="D28" t="n">
+        <v>782142.9400000001</v>
       </c>
     </row>
     <row r="29">
@@ -801,10 +891,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-558741.4809135478</v>
+        <v>-659609.3616564312</v>
       </c>
       <c r="C29" t="n">
-        <v>762635.7909135479</v>
+        <v>924803.8816564311</v>
+      </c>
+      <c r="D29" t="n">
+        <v>615955.2799999999</v>
       </c>
     </row>
     <row r="30">
@@ -814,10 +907,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-915736.2115719212</v>
+        <v>-970281.8732635227</v>
       </c>
       <c r="C30" t="n">
-        <v>714191.5595859606</v>
+        <v>827490.3312775621</v>
+      </c>
+      <c r="D30" t="n">
+        <v>584335.36</v>
       </c>
     </row>
     <row r="31">
@@ -827,10 +923,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1754759.120549441</v>
+        <v>-1859797.832942319</v>
       </c>
       <c r="C31" t="n">
-        <v>1005834.020549441</v>
+        <v>1176933.352942319</v>
+      </c>
+      <c r="D31" t="n">
+        <v>733778.1900000001</v>
       </c>
     </row>
     <row r="32">
@@ -840,10 +939,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-626820.1653341503</v>
+        <v>-371257.9342454917</v>
       </c>
       <c r="C32" t="n">
-        <v>1272379.84533415</v>
+        <v>1110936.064245492</v>
+      </c>
+      <c r="D32" t="n">
+        <v>896479.72</v>
       </c>
     </row>
     <row r="33">
@@ -853,10 +955,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1958755.661766757</v>
+        <v>-2138030.0388867</v>
       </c>
       <c r="C33" t="n">
-        <v>1017160.452583378</v>
+        <v>1195977.179703321</v>
+      </c>
+      <c r="D33" t="n">
+        <v>539293.3199999999</v>
       </c>
     </row>
     <row r="34">
@@ -865,11 +970,14 @@
           <t>Ул. Мусоргского дом 19/б</t>
         </is>
       </c>
-      <c r="B34" t="e">
-        <v>#N/A</v>
+      <c r="B34" t="n">
+        <v>-1567655.281863117</v>
       </c>
       <c r="C34" t="n">
-        <v>771982.0819645089</v>
+        <v>996859.2212586077</v>
+      </c>
+      <c r="D34" t="n">
+        <v>575396.46</v>
       </c>
     </row>
     <row r="35">
@@ -879,10 +987,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1123752.932843385</v>
+        <v>-1158996.338149728</v>
       </c>
       <c r="C35" t="n">
-        <v>724326.3528433847</v>
+        <v>815041.1081497285</v>
+      </c>
+      <c r="D35" t="n">
+        <v>555952.5600000001</v>
       </c>
     </row>
     <row r="36">
@@ -892,10 +1003,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-808011.7787479772</v>
+        <v>-1081424.488325327</v>
       </c>
       <c r="C36" t="n">
-        <v>1105375.058747977</v>
+        <v>1345441.448325327</v>
+      </c>
+      <c r="D36" t="n">
+        <v>815665.77</v>
       </c>
     </row>
     <row r="37">
@@ -905,10 +1019,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8606216.250195896</v>
+        <v>8625774.649488607</v>
       </c>
       <c r="C37" t="n">
-        <v>2307423.799804104</v>
+        <v>2524380.800511392</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2517638.1</v>
       </c>
     </row>
     <row r="38">
@@ -918,10 +1035,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1133226.374487744</v>
+        <v>-1118518.358518849</v>
       </c>
       <c r="C38" t="n">
-        <v>501511.9344877441</v>
+        <v>481749.7285188492</v>
+      </c>
+      <c r="D38" t="n">
+        <v>423918.16</v>
       </c>
     </row>
     <row r="39">
@@ -931,10 +1051,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-161774.0851494127</v>
+        <v>-192940.3741343461</v>
       </c>
       <c r="C39" t="n">
-        <v>1476432.955149413</v>
+        <v>1488323.044134346</v>
+      </c>
+      <c r="D39" t="n">
+        <v>893607.0599999999</v>
       </c>
     </row>
     <row r="40">
@@ -944,10 +1067,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1126224.573321611</v>
+        <v>-1220496.599073902</v>
       </c>
       <c r="C40" t="n">
-        <v>424341.6633216114</v>
+        <v>546934.2190739014</v>
+      </c>
+      <c r="D40" t="n">
+        <v>261364.7</v>
       </c>
     </row>
     <row r="41">
@@ -957,10 +1083,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1197913.576269079</v>
+        <v>-1063814.976573114</v>
       </c>
       <c r="C41" t="n">
-        <v>773980.0762690796</v>
+        <v>690891.8165731138</v>
+      </c>
+      <c r="D41" t="n">
+        <v>509381.42</v>
       </c>
     </row>
     <row r="42">
@@ -970,10 +1099,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-542647.0412595482</v>
+        <v>-713718.9213114069</v>
       </c>
       <c r="C42" t="n">
-        <v>437954.5312595481</v>
+        <v>645288.251311407</v>
+      </c>
+      <c r="D42" t="n">
+        <v>332254.06</v>
       </c>
     </row>
     <row r="43">
@@ -983,10 +1115,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65148.89780900022</v>
+        <v>26486.75109476794</v>
       </c>
       <c r="C43" t="n">
-        <v>438975.6921909998</v>
+        <v>522139.0489052321</v>
+      </c>
+      <c r="D43" t="n">
+        <v>448786.6</v>
       </c>
     </row>
     <row r="44">
@@ -996,10 +1131,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1752654.709413487</v>
+        <v>-1745147.100468611</v>
       </c>
       <c r="C44" t="n">
-        <v>703426.7194134865</v>
+        <v>731869.9904686111</v>
+      </c>
+      <c r="D44" t="n">
+        <v>362488.46</v>
       </c>
     </row>
     <row r="45">
@@ -1009,10 +1147,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-836582.1145417283</v>
+        <v>-895019.738814522</v>
       </c>
       <c r="C45" t="n">
-        <v>324745.1445417283</v>
+        <v>408128.8888145221</v>
+      </c>
+      <c r="D45" t="n">
+        <v>248892.5</v>
       </c>
     </row>
     <row r="46">
@@ -1022,10 +1163,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-405266.8709658305</v>
+        <v>-487359.0386447986</v>
       </c>
       <c r="C46" t="n">
-        <v>415328.8809658305</v>
+        <v>529500.9186447987</v>
+      </c>
+      <c r="D46" t="n">
+        <v>307196.9</v>
       </c>
     </row>
     <row r="47">
@@ -1035,10 +1179,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-194681.9249920563</v>
+        <v>-259337.0306552873</v>
       </c>
       <c r="C47" t="n">
-        <v>408333.9049920563</v>
+        <v>512840.6806552873</v>
+      </c>
+      <c r="D47" t="n">
+        <v>402800.44</v>
       </c>
     </row>
     <row r="48">
@@ -1048,10 +1195,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-364093.678383074</v>
+        <v>-453391.770084938</v>
       </c>
       <c r="C48" t="n">
-        <v>396247.3583830741</v>
+        <v>516156.6700849381</v>
+      </c>
+      <c r="D48" t="n">
+        <v>305989.62</v>
       </c>
     </row>
     <row r="49">
@@ -1061,10 +1211,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-1189956.110982231</v>
+        <v>-1386517.727310095</v>
       </c>
       <c r="C49" t="n">
-        <v>393342.3009822312</v>
+        <v>612622.477310095</v>
+      </c>
+      <c r="D49" t="n">
+        <v>210122.78</v>
       </c>
     </row>
     <row r="50">
@@ -1074,10 +1227,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-1218148.926455433</v>
+        <v>-1264401.504669227</v>
       </c>
       <c r="C50" t="n">
-        <v>437259.9564554327</v>
+        <v>524186.7546692266</v>
+      </c>
+      <c r="D50" t="n">
+        <v>299815.18</v>
       </c>
     </row>
     <row r="51">
@@ -1087,10 +1243,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>135474.9274743079</v>
+        <v>125884.1301216043</v>
       </c>
       <c r="C51" t="n">
-        <v>554497.102525692</v>
+        <v>612061.0498783957</v>
+      </c>
+      <c r="D51" t="n">
+        <v>506666.28</v>
       </c>
     </row>
     <row r="52">
@@ -1100,10 +1259,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-197273.1903158631</v>
+        <v>-281346.7951062392</v>
       </c>
       <c r="C52" t="n">
-        <v>528488.6603158631</v>
+        <v>612104.6151062392</v>
+      </c>
+      <c r="D52" t="n">
+        <v>374789.28</v>
       </c>
     </row>
     <row r="53">
@@ -1113,10 +1275,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>334587.3051182104</v>
+        <v>141010.0502880849</v>
       </c>
       <c r="C53" t="n">
-        <v>1255602.914881789</v>
+        <v>1531677.179711915</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1021163.88</v>
       </c>
     </row>
     <row r="54">
@@ -1126,10 +1291,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1306777.13892396</v>
+        <v>-1148283.947170165</v>
       </c>
       <c r="C54" t="n">
-        <v>2462361.38736198</v>
+        <v>2323160.535608185</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1403174.08</v>
       </c>
     </row>
     <row r="55">
@@ -1139,10 +1307,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-677229.6712656748</v>
+        <v>-522825.5491439031</v>
       </c>
       <c r="C55" t="n">
-        <v>1012132.241265675</v>
+        <v>865564.6891439031</v>
+      </c>
+      <c r="D55" t="n">
+        <v>677123.7</v>
       </c>
     </row>
     <row r="56">
@@ -1152,10 +1323,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1707654.140738026</v>
+        <v>-1331020.921137558</v>
       </c>
       <c r="C56" t="n">
-        <v>994129.8507380261</v>
+        <v>731847.2011375577</v>
+      </c>
+      <c r="D56" t="n">
+        <v>556792.6800000001</v>
       </c>
     </row>
     <row r="57">
@@ -1165,10 +1339,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1397062.763429031</v>
+        <v>-1229013.555173635</v>
       </c>
       <c r="C57" t="n">
-        <v>1663108.493429031</v>
+        <v>1432967.335173636</v>
+      </c>
+      <c r="D57" t="n">
+        <v>808255.0800000001</v>
       </c>
     </row>
     <row r="58">
@@ -1178,10 +1355,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1060370.514878339</v>
+        <v>-691560.0483485342</v>
       </c>
       <c r="C58" t="n">
-        <v>2132729.204878339</v>
+        <v>1887670.538348534</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1165338.02</v>
       </c>
     </row>
     <row r="59">
@@ -1191,10 +1371,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1096446.706910722</v>
+        <v>-1085978.101010311</v>
       </c>
       <c r="C59" t="n">
-        <v>892883.6769107223</v>
+        <v>956247.1010103114</v>
+      </c>
+      <c r="D59" t="n">
+        <v>740982.02</v>
       </c>
     </row>
     <row r="60">
@@ -1204,10 +1387,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-768903.5183250437</v>
+        <v>-800630.6089562294</v>
       </c>
       <c r="C60" t="n">
-        <v>714627.6383250438</v>
+        <v>801443.4989562294</v>
+      </c>
+      <c r="D60" t="n">
+        <v>551266.97</v>
       </c>
     </row>
     <row r="61">
@@ -1217,10 +1403,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4738394.859499951</v>
+        <v>4709274.015035152</v>
       </c>
       <c r="C61" t="n">
-        <v>3138343.500500049</v>
+        <v>3116960.504964849</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2511129.23</v>
       </c>
     </row>
     <row r="62">
@@ -1230,10 +1419,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>893.5589472000138</v>
+        <v>36223.13386784319</v>
       </c>
       <c r="C62" t="n">
-        <v>464802.6510528</v>
+        <v>502842.4961321568</v>
+      </c>
+      <c r="D62" t="n">
+        <v>331958.26</v>
       </c>
     </row>
     <row r="63">
@@ -1243,10 +1435,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>247961.3932159997</v>
+        <v>144414.7670087998</v>
       </c>
       <c r="C63" t="n">
-        <v>1193835.026784</v>
+        <v>1313010.2829912</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1101327.39</v>
       </c>
     </row>
     <row r="64">
@@ -1256,10 +1451,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-1594058.088141699</v>
+        <v>-1874686.718032502</v>
       </c>
       <c r="C64" t="n">
-        <v>940566.0281416988</v>
+        <v>1312298.538032502</v>
+      </c>
+      <c r="D64" t="n">
+        <v>823146.34</v>
       </c>
     </row>
     <row r="65">
@@ -1269,10 +1467,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-289559.4565535452</v>
+        <v>-364783.9657606244</v>
       </c>
       <c r="C65" t="n">
-        <v>953306.3365535452</v>
+        <v>1013064.265760624</v>
+      </c>
+      <c r="D65" t="n">
+        <v>755198.2799999999</v>
       </c>
     </row>
     <row r="66">
@@ -1282,10 +1483,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-245838.9649488546</v>
+        <v>-189641.4224857687</v>
       </c>
       <c r="C66" t="n">
-        <v>535171.7949488546</v>
+        <v>483714.9624857687</v>
+      </c>
+      <c r="D66" t="n">
+        <v>409723.36</v>
       </c>
     </row>
     <row r="67">
@@ -1295,10 +1499,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-930069.7900811618</v>
+        <v>-924576.7593124602</v>
       </c>
       <c r="C67" t="n">
-        <v>696473.6800811618</v>
+        <v>734786.2493124602</v>
+      </c>
+      <c r="D67" t="n">
+        <v>489718.08</v>
       </c>
     </row>
     <row r="68">
@@ -1308,10 +1515,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-905827.1090838683</v>
+        <v>-986973.4675637833</v>
       </c>
       <c r="C68" t="n">
-        <v>488991.3990838684</v>
+        <v>609161.8775637833</v>
+      </c>
+      <c r="D68" t="n">
+        <v>302040.24</v>
       </c>
     </row>
     <row r="69">
@@ -1321,10 +1531,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-652016.2025373798</v>
+        <v>-761120.8729390558</v>
       </c>
       <c r="C69" t="n">
-        <v>754337.5525373798</v>
+        <v>926392.2729390557</v>
+      </c>
+      <c r="D69" t="n">
+        <v>714628.7999999999</v>
       </c>
     </row>
     <row r="70">
@@ -1334,10 +1547,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-807536.9627845804</v>
+        <v>-727859.0771790044</v>
       </c>
       <c r="C70" t="n">
-        <v>489972.0527845805</v>
+        <v>476433.4171790045</v>
+      </c>
+      <c r="D70" t="n">
+        <v>348109.55</v>
       </c>
     </row>
     <row r="71">
@@ -1347,10 +1563,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-413675.4408727934</v>
+        <v>-610552.521824036</v>
       </c>
       <c r="C71" t="n">
-        <v>718765.6797963966</v>
+        <v>915185.1107476393</v>
+      </c>
+      <c r="D71" t="n">
+        <v>522071.76</v>
       </c>
     </row>
     <row r="72">
@@ -1360,10 +1579,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1571036.596173495</v>
+        <v>-1538154.817939376</v>
       </c>
       <c r="C72" t="n">
-        <v>1025888.846173495</v>
+        <v>1067677.527939376</v>
+      </c>
+      <c r="D72" t="n">
+        <v>750081.7100000001</v>
       </c>
     </row>
     <row r="73">
@@ -1373,10 +1595,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-1827719.886706819</v>
+        <v>-1919704.209388287</v>
       </c>
       <c r="C73" t="n">
-        <v>619606.546706819</v>
+        <v>666184.8693882866</v>
+      </c>
+      <c r="D73" t="n">
+        <v>345399.72</v>
       </c>
     </row>
     <row r="74">
@@ -1386,10 +1611,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>538433.1148584762</v>
+        <v>553374.6751025039</v>
       </c>
       <c r="C74" t="n">
-        <v>411120.9451415237</v>
+        <v>457505.7148974962</v>
+      </c>
+      <c r="D74" t="n">
+        <v>617052.08</v>
       </c>
     </row>
     <row r="75">
@@ -1399,10 +1627,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>370012.2072245252</v>
+        <v>330186.2520259297</v>
       </c>
       <c r="C75" t="n">
-        <v>382619.9427754749</v>
+        <v>467533.9379740704</v>
+      </c>
+      <c r="D75" t="n">
+        <v>452259.38</v>
       </c>
     </row>
     <row r="76">
@@ -1412,10 +1643,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>17923.02285572852</v>
+        <v>-119663.1143508683</v>
       </c>
       <c r="C76" t="n">
-        <v>436232.7371442715</v>
+        <v>616469.1043508683</v>
+      </c>
+      <c r="D76" t="n">
+        <v>430705.76</v>
       </c>
     </row>
     <row r="77">
@@ -1425,10 +1659,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>710374.2118670251</v>
+        <v>697207.9558840524</v>
       </c>
       <c r="C77" t="n">
-        <v>3579365.638132975</v>
+        <v>3853811.924115947</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3101386.41</v>
       </c>
     </row>
     <row r="78">
@@ -1438,10 +1675,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-4365715.132394105</v>
+        <v>-3727237.778201973</v>
       </c>
       <c r="C78" t="n">
-        <v>1640380.482394106</v>
+        <v>1204111.208201973</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1226065.88</v>
       </c>
     </row>
     <row r="79">
@@ -1451,10 +1691,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-1419770.990845178</v>
+        <v>-1409077.509531064</v>
       </c>
       <c r="C79" t="n">
-        <v>871319.5008451777</v>
+        <v>1006760.199531064</v>
+      </c>
+      <c r="D79" t="n">
+        <v>698543.3400000001</v>
       </c>
     </row>
     <row r="80">
@@ -1464,10 +1707,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-2095273.510880871</v>
+        <v>-1851929.122122722</v>
       </c>
       <c r="C80" t="n">
-        <v>726802.4108808713</v>
+        <v>557778.6121227217</v>
+      </c>
+      <c r="D80" t="n">
+        <v>373254.36</v>
       </c>
     </row>
   </sheetData>

--- a/testEXLS/2025_otchet_result.xlsx
+++ b/testEXLS/2025_otchet_result.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,1265 +455,593 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ул. 1-я Строителей дом 42</t>
+          <t>Ул. Дагестанская дом 5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-145996.9590601494</v>
+        <v>-297974.3582667984</v>
       </c>
       <c r="C2" t="n">
-        <v>401910.7790601494</v>
+        <v>279588.1982667984</v>
       </c>
       <c r="D2" t="n">
-        <v>285632.85</v>
+        <v>253213.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ул. 1-я Строителей дом 44</t>
+          <t>Ул. Мусы Джалиля дом 6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-93316.90611180809</v>
+        <v>-445458.5194448339</v>
       </c>
       <c r="C3" t="n">
-        <v>473472.6261118081</v>
+        <v>212635.2194448338</v>
       </c>
       <c r="D3" t="n">
-        <v>324917.26</v>
+        <v>176635.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ул. 1-я Строителей дом 46</t>
+          <t>Ул. Центральная дом 28</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338996.6128959975</v>
+        <v>-465029.8969474084</v>
       </c>
       <c r="C4" t="n">
-        <v>629154.8971040025</v>
+        <v>254467.9269474085</v>
       </c>
       <c r="D4" t="n">
-        <v>502678.25</v>
+        <v>184832.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ул. Дагестанская дом 7</t>
+          <t>Ул. Левитана дом 3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1220633.009690825</v>
+        <v>-54841.388286929</v>
       </c>
       <c r="C5" t="n">
-        <v>466685.7296908246</v>
+        <v>395631.168355788</v>
       </c>
       <c r="D5" t="n">
-        <v>320399.64</v>
+        <v>356468.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ул. Дагестанская дом 9</t>
+          <t>Ул. Левитана дом 5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-715439.5317326429</v>
+        <v>11026.48547833995</v>
       </c>
       <c r="C6" t="n">
-        <v>413243.3917326429</v>
+        <v>471072.90452166</v>
       </c>
       <c r="D6" t="n">
-        <v>319208.76</v>
+        <v>313322.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ул. Дагестанская дом 9/1</t>
+          <t>Ул. Левитана дом 8</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-351957.2525500387</v>
+        <v>-251277.5210974012</v>
       </c>
       <c r="C7" t="n">
-        <v>376710.9525500387</v>
+        <v>407933.7136539901</v>
       </c>
       <c r="D7" t="n">
-        <v>205429.9</v>
+        <v>227553.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ул. Дагестанская дом 11</t>
+          <t>Ул. Левитана дом 13</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-492319.7420069587</v>
+        <v>-943990.972114983</v>
       </c>
       <c r="C8" t="n">
-        <v>474335.8820069587</v>
+        <v>388962.5933727783</v>
       </c>
       <c r="D8" t="n">
-        <v>324557.04</v>
+        <v>285854.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ул. Дагестанская дом 11/1</t>
+          <t>Ул. Левитана дом 17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3201604.689693217</v>
+        <v>-665096.6734256351</v>
       </c>
       <c r="C9" t="n">
-        <v>2049677.995871845</v>
+        <v>292543.5857070349</v>
       </c>
       <c r="D9" t="n">
-        <v>1671980.64</v>
+        <v>157059.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ул. Дагестанская дом 13</t>
+          <t>Ул. Левитана дом 41</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-981145.6198012002</v>
+        <v>-908787.3059856</v>
       </c>
       <c r="C10" t="n">
-        <v>448685.1298012003</v>
+        <v>234672.1259856</v>
       </c>
       <c r="D10" t="n">
-        <v>292743.58</v>
+        <v>91450.96000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ул. Дагестанская дом 17</t>
+          <t>Ул. Локомотивная дом 2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1459448.101488742</v>
+        <v>-39763.79988961633</v>
       </c>
       <c r="C11" t="n">
-        <v>822622.8814887422</v>
+        <v>51499.02842264023</v>
       </c>
       <c r="D11" t="n">
-        <v>446208.48</v>
+        <v>22876.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ул. Дагестанская дом 19</t>
+          <t>Ул. Локомотивная дом 4</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1139784.570016296</v>
+        <v>-8745.30976381756</v>
       </c>
       <c r="C12" t="n">
-        <v>1058239.760016296</v>
+        <v>30054.41613110947</v>
       </c>
       <c r="D12" t="n">
-        <v>807657.8800000001</v>
+        <v>23986.62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ул. Дагестанская дом 31</t>
+          <t>Ул. Локомотивная дом 6</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1436643.250037907</v>
+        <v>75951.16223744834</v>
       </c>
       <c r="C13" t="n">
-        <v>1362235.780037907</v>
+        <v>50868.58518965605</v>
       </c>
       <c r="D13" t="n">
-        <v>648502.88</v>
+        <v>46030.52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ул. Левитана дом 7</t>
+          <t>Ул. Локомотивная дом 26</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1040015.48165566</v>
+        <v>-33570.6187507088</v>
       </c>
       <c r="C14" t="n">
-        <v>764674.4416556599</v>
+        <v>67806.9104001503</v>
       </c>
       <c r="D14" t="n">
-        <v>379457.52</v>
+        <v>32411.48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ул. Левитана дом 14/1</t>
+          <t>Ул. Новороссийская дом 8</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>398659.3376260023</v>
+        <v>-244017.9191980736</v>
       </c>
       <c r="C15" t="n">
-        <v>985837.5223739976</v>
+        <v>117133.7091980736</v>
       </c>
       <c r="D15" t="n">
-        <v>723919.4399999999</v>
+        <v>90410.07000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ул. Левитана дом 14/2</t>
+          <t>Ул. Правды дом 12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-600525.1982288783</v>
+        <v>-256305.2747240883</v>
       </c>
       <c r="C16" t="n">
-        <v>924885.5382288783</v>
+        <v>378378.1147418909</v>
       </c>
       <c r="D16" t="n">
-        <v>791267.72</v>
+        <v>278739.48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ул. Левитана дом 14/3</t>
+          <t>Ул. Рядовая дом 2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1743365.506880555</v>
+        <v>-1159868.356901876</v>
       </c>
       <c r="C17" t="n">
-        <v>1581872.266880555</v>
+        <v>213911.3475407636</v>
       </c>
       <c r="D17" t="n">
-        <v>680362.26</v>
+        <v>125917.24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ул. Левитана дом 14/5</t>
+          <t>Ул. Рядовая дом 3/1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-902537.27919328</v>
+        <v>-36085.53397254072</v>
       </c>
       <c r="C18" t="n">
-        <v>895641.25919328</v>
+        <v>173681.5234563773</v>
       </c>
       <c r="D18" t="n">
-        <v>537906.08</v>
+        <v>169051.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ул. Левитана дом 14/6</t>
+          <t>Ул. Рядовая дом 5/1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1503558.557537016</v>
+        <v>-189879.8916609334</v>
       </c>
       <c r="C19" t="n">
-        <v>1005708.897537016</v>
+        <v>214561.9654449825</v>
       </c>
       <c r="D19" t="n">
-        <v>638320.14</v>
+        <v>193290.22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ул. Левитана дом 21/а</t>
+          <t>Ул. Рядовая дом 7/1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1018.329088359838</v>
+        <v>-345202.4473827186</v>
       </c>
       <c r="C20" t="n">
-        <v>399339.1109116402</v>
+        <v>297114.1084515597</v>
       </c>
       <c r="D20" t="n">
-        <v>275791.9</v>
+        <v>205171.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ул. Левитана дом 22/2</t>
+          <t>Ул. Таллинская дом 2/1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1711391.623040772</v>
+        <v>114010.6040335474</v>
       </c>
       <c r="C21" t="n">
-        <v>1153239.773040772</v>
+        <v>188171.3039318777</v>
       </c>
       <c r="D21" t="n">
-        <v>569909.95</v>
+        <v>163597.44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ул. Левитана дом 71</t>
+          <t>Ул. Таллинская дом 3/1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-277764.621849834</v>
+        <v>-96738.1125239002</v>
       </c>
       <c r="C22" t="n">
-        <v>1582718.671849834</v>
+        <v>295600.3586199953</v>
       </c>
       <c r="D22" t="n">
-        <v>1105999.4</v>
+        <v>268144.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ул. Минская дом 58</t>
+          <t>Ул. Таллинская дом 3/а</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2224037.313379247</v>
+        <v>-559449.295839043</v>
       </c>
       <c r="C23" t="n">
-        <v>1108542.703379247</v>
+        <v>291086.9315361972</v>
       </c>
       <c r="D23" t="n">
-        <v>568005.0600000001</v>
+        <v>99126.56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ул. Мусоргского дом 7</t>
+          <t>Ул. Ухтомского дом 5</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1485491.039436849</v>
+        <v>-933564.7713128472</v>
       </c>
       <c r="C24" t="n">
-        <v>619526.3594368487</v>
+        <v>204018.6317152022</v>
       </c>
       <c r="D24" t="n">
-        <v>505501.34</v>
+        <v>150869.38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ул. Мусоргского дом 9/а</t>
+          <t>Ул. Центральная дом 1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-621601.6605843453</v>
+        <v>-13954.47952845093</v>
       </c>
       <c r="C25" t="n">
-        <v>955392.0105843453</v>
+        <v>29539.17941234144</v>
       </c>
       <c r="D25" t="n">
-        <v>595497.12</v>
+        <v>22013.51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ул. Мусоргского дом 11</t>
+          <t>Ул. Центральная дом 2</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>178021.368514789</v>
+        <v>-642976.1958988225</v>
       </c>
       <c r="C26" t="n">
-        <v>919312.451485211</v>
+        <v>360675.7194178844</v>
       </c>
       <c r="D26" t="n">
-        <v>775217.54</v>
+        <v>273882.58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ул. Мусоргского дом 13</t>
+          <t>Ул. Центральная дом 3</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-531796.4568867931</v>
+        <v>-17866.38221248101</v>
       </c>
       <c r="C27" t="n">
-        <v>868399.8468867932</v>
+        <v>26451.58735897216</v>
       </c>
       <c r="D27" t="n">
-        <v>584922.64</v>
+        <v>16807.14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ул. Мусоргского дом 13/А</t>
+          <t>Ул. Центральная дом 4</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-6772.554490339593</v>
+        <v>-459250.4708680101</v>
       </c>
       <c r="C28" t="n">
-        <v>746494.8544903398</v>
+        <v>256129.8123884311</v>
       </c>
       <c r="D28" t="n">
-        <v>782142.9400000001</v>
+        <v>217219.16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ул. Мусоргского дом 15</t>
+          <t>Ул. Центральная дом 4/а</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-659609.3616564312</v>
+        <v>-139976.9550842203</v>
       </c>
       <c r="C29" t="n">
-        <v>924803.8816564311</v>
+        <v>105592.1243775925</v>
       </c>
       <c r="D29" t="n">
-        <v>615955.2799999999</v>
+        <v>109536.06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ул. Мусоргского дом 15/а</t>
+          <t>Ул. Центральная дом 8</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-970281.8732635227</v>
+        <v>-739424.8805963895</v>
       </c>
       <c r="C30" t="n">
-        <v>827490.3312775621</v>
+        <v>471947.8120559321</v>
       </c>
       <c r="D30" t="n">
-        <v>584335.36</v>
+        <v>340254.44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ул. Мусоргского дом 17</t>
+          <t>Ул. Центральная дом 10</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1859797.832942319</v>
+        <v>-368633.4263509557</v>
       </c>
       <c r="C31" t="n">
-        <v>1176933.352942319</v>
+        <v>324338.5654951369</v>
       </c>
       <c r="D31" t="n">
-        <v>733778.1900000001</v>
+        <v>191886.58</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ул. Мусоргского дом 19/1</t>
+          <t>Ул. Центральная дом 12</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-371257.9342454917</v>
+        <v>-519148.8907834902</v>
       </c>
       <c r="C32" t="n">
-        <v>1110936.064245492</v>
+        <v>245190.4631708153</v>
       </c>
       <c r="D32" t="n">
-        <v>896479.72</v>
+        <v>187668.12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ул. Мусоргского дом 19/а</t>
+          <t>Ул. Центральная дом 14</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-2138030.0388867</v>
+        <v>83277.14123792254</v>
       </c>
       <c r="C33" t="n">
-        <v>1195977.179703321</v>
+        <v>319928.1254257684</v>
       </c>
       <c r="D33" t="n">
-        <v>539293.3199999999</v>
+        <v>297085.04</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ул. Мусоргского дом 19/б</t>
+          <t>Ул. Центральная дом 22</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1567655.281863117</v>
+        <v>-798565.2414583769</v>
       </c>
       <c r="C34" t="n">
-        <v>996859.2212586077</v>
+        <v>157307.3225901428</v>
       </c>
       <c r="D34" t="n">
-        <v>575396.46</v>
+        <v>109979</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ул. Мусоргского дом 21</t>
+          <t>Ул. Центральная дом 31/1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1158996.338149728</v>
+        <v>-303720.2032095999</v>
       </c>
       <c r="C35" t="n">
-        <v>815041.1081497285</v>
+        <v>152055.7032096</v>
       </c>
       <c r="D35" t="n">
-        <v>555952.5600000001</v>
+        <v>40297.43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ул. Мусоргского дом 25/1</t>
+          <t>Ул. Центральная дом 42</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1081424.488325327</v>
+        <v>-1044315.3707328</v>
       </c>
       <c r="C36" t="n">
-        <v>1345441.448325327</v>
+        <v>190009.4207328</v>
       </c>
       <c r="D36" t="n">
-        <v>815665.77</v>
+        <v>116780</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ул. Мусы Джалиля дом 66</t>
+          <t>Ул. Центральная дом 44</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8625774.649488607</v>
+        <v>-766463.3943154</v>
       </c>
       <c r="C37" t="n">
-        <v>2524380.800511392</v>
+        <v>194269.0943154</v>
       </c>
       <c r="D37" t="n">
-        <v>2517638.1</v>
+        <v>118300.51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ул. Новороссийская дом 2</t>
+          <t>Ул. Центральная дом 51</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1118518.358518849</v>
+        <v>-1877962.44696928</v>
       </c>
       <c r="C38" t="n">
-        <v>481749.7285188492</v>
+        <v>191505.0569692799</v>
       </c>
       <c r="D38" t="n">
-        <v>423918.16</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 1</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-192940.3741343461</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1488323.044134346</v>
-      </c>
-      <c r="D39" t="n">
-        <v>893607.0599999999</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 2</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-1220496.599073902</v>
-      </c>
-      <c r="C40" t="n">
-        <v>546934.2190739014</v>
-      </c>
-      <c r="D40" t="n">
-        <v>261364.7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 3</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-1063814.976573114</v>
-      </c>
-      <c r="C41" t="n">
-        <v>690891.8165731138</v>
-      </c>
-      <c r="D41" t="n">
-        <v>509381.42</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 4</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>-713718.9213114069</v>
-      </c>
-      <c r="C42" t="n">
-        <v>645288.251311407</v>
-      </c>
-      <c r="D42" t="n">
-        <v>332254.06</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 4/1</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>26486.75109476794</v>
-      </c>
-      <c r="C43" t="n">
-        <v>522139.0489052321</v>
-      </c>
-      <c r="D43" t="n">
-        <v>448786.6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 6</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>-1745147.100468611</v>
-      </c>
-      <c r="C44" t="n">
-        <v>731869.9904686111</v>
-      </c>
-      <c r="D44" t="n">
-        <v>362488.46</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 6/а</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>-895019.738814522</v>
-      </c>
-      <c r="C45" t="n">
-        <v>408128.8888145221</v>
-      </c>
-      <c r="D45" t="n">
-        <v>248892.5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 8</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>-487359.0386447986</v>
-      </c>
-      <c r="C46" t="n">
-        <v>529500.9186447987</v>
-      </c>
-      <c r="D46" t="n">
-        <v>307196.9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 8/1</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>-259337.0306552873</v>
-      </c>
-      <c r="C47" t="n">
-        <v>512840.6806552873</v>
-      </c>
-      <c r="D47" t="n">
-        <v>402800.44</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 8/а</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>-453391.770084938</v>
-      </c>
-      <c r="C48" t="n">
-        <v>516156.6700849381</v>
-      </c>
-      <c r="D48" t="n">
-        <v>305989.62</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 10</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>-1386517.727310095</v>
-      </c>
-      <c r="C49" t="n">
-        <v>612622.477310095</v>
-      </c>
-      <c r="D49" t="n">
-        <v>210122.78</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 10/а</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>-1264401.504669227</v>
-      </c>
-      <c r="C50" t="n">
-        <v>524186.7546692266</v>
-      </c>
-      <c r="D50" t="n">
-        <v>299815.18</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 11</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>125884.1301216043</v>
-      </c>
-      <c r="C51" t="n">
-        <v>612061.0498783957</v>
-      </c>
-      <c r="D51" t="n">
-        <v>506666.28</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 13</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>-281346.7951062392</v>
-      </c>
-      <c r="C52" t="n">
-        <v>612104.6151062392</v>
-      </c>
-      <c r="D52" t="n">
-        <v>374789.28</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 15</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>141010.0502880849</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1531677.179711915</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1021163.88</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 18</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>-1148283.947170165</v>
-      </c>
-      <c r="C54" t="n">
-        <v>2323160.535608185</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1403174.08</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 18/1</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>-522825.5491439031</v>
-      </c>
-      <c r="C55" t="n">
-        <v>865564.6891439031</v>
-      </c>
-      <c r="D55" t="n">
-        <v>677123.7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 18/2</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>-1331020.921137558</v>
-      </c>
-      <c r="C56" t="n">
-        <v>731847.2011375577</v>
-      </c>
-      <c r="D56" t="n">
-        <v>556792.6800000001</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 18/3</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>-1229013.555173635</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1432967.335173636</v>
-      </c>
-      <c r="D57" t="n">
-        <v>808255.0800000001</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 20</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>-691560.0483485342</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1887670.538348534</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1165338.02</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 20/1</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>-1085978.101010311</v>
-      </c>
-      <c r="C59" t="n">
-        <v>956247.1010103114</v>
-      </c>
-      <c r="D59" t="n">
-        <v>740982.02</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 20/2</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>-800630.6089562294</v>
-      </c>
-      <c r="C60" t="n">
-        <v>801443.4989562294</v>
-      </c>
-      <c r="D60" t="n">
-        <v>551266.97</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 25</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>4709274.015035152</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3116960.504964849</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2511129.23</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 25/1</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>36223.13386784319</v>
-      </c>
-      <c r="C62" t="n">
-        <v>502842.4961321568</v>
-      </c>
-      <c r="D62" t="n">
-        <v>331958.26</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 25/2</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>144414.7670087998</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1313010.2829912</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1101327.39</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Ул. Правды дом 31/1</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>-1874686.718032502</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1312298.538032502</v>
-      </c>
-      <c r="D64" t="n">
-        <v>823146.34</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Ул. Таллинская дом 4</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>-364783.9657606244</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1013064.265760624</v>
-      </c>
-      <c r="D65" t="n">
-        <v>755198.2799999999</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Ул. Таллинская дом 6</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>-189641.4224857687</v>
-      </c>
-      <c r="C66" t="n">
-        <v>483714.9624857687</v>
-      </c>
-      <c r="D66" t="n">
-        <v>409723.36</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Ул. Таллинская дом 7</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>-924576.7593124602</v>
-      </c>
-      <c r="C67" t="n">
-        <v>734786.2493124602</v>
-      </c>
-      <c r="D67" t="n">
-        <v>489718.08</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Ул. Таллинская дом 14</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>-986973.4675637833</v>
-      </c>
-      <c r="C68" t="n">
-        <v>609161.8775637833</v>
-      </c>
-      <c r="D68" t="n">
-        <v>302040.24</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Ул. Таллинская дом 21</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>-761120.8729390558</v>
-      </c>
-      <c r="C69" t="n">
-        <v>926392.2729390557</v>
-      </c>
-      <c r="D69" t="n">
-        <v>714628.7999999999</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Ул. Таллинская дом 21/а</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>-727859.0771790044</v>
-      </c>
-      <c r="C70" t="n">
-        <v>476433.4171790045</v>
-      </c>
-      <c r="D70" t="n">
-        <v>348109.55</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Ул. Таллинская дом 23</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>-610552.521824036</v>
-      </c>
-      <c r="C71" t="n">
-        <v>915185.1107476393</v>
-      </c>
-      <c r="D71" t="n">
-        <v>522071.76</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Ул. Таллинская дом 23/а</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>-1538154.817939376</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1067677.527939376</v>
-      </c>
-      <c r="D72" t="n">
-        <v>750081.7100000001</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Ул. Таллинская дом 23/б</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>-1919704.209388287</v>
-      </c>
-      <c r="C73" t="n">
-        <v>666184.8693882866</v>
-      </c>
-      <c r="D73" t="n">
-        <v>345399.72</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Ул. Таллинская дом 24/1</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>553374.6751025039</v>
-      </c>
-      <c r="C74" t="n">
-        <v>457505.7148974962</v>
-      </c>
-      <c r="D74" t="n">
-        <v>617052.08</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Ул. Таллинская дом 26/1</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>330186.2520259297</v>
-      </c>
-      <c r="C75" t="n">
-        <v>467533.9379740704</v>
-      </c>
-      <c r="D75" t="n">
-        <v>452259.38</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Ул. Таллинская дом 28/1</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>-119663.1143508683</v>
-      </c>
-      <c r="C76" t="n">
-        <v>616469.1043508683</v>
-      </c>
-      <c r="D76" t="n">
-        <v>430705.76</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Ул. Ухтомского дом 26</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>697207.9558840524</v>
-      </c>
-      <c r="C77" t="n">
-        <v>3853811.924115947</v>
-      </c>
-      <c r="D77" t="n">
-        <v>3101386.41</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Ул. Центральная дом 1/2</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>-3727237.778201973</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1204111.208201973</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1226065.88</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Ул. Центральная дом 6/1</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>-1409077.509531064</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1006760.199531064</v>
-      </c>
-      <c r="D79" t="n">
-        <v>698543.3400000001</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Ул. Центральная дом 18/1</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>-1851929.122122722</v>
-      </c>
-      <c r="C80" t="n">
-        <v>557778.6121227217</v>
-      </c>
-      <c r="D80" t="n">
-        <v>373254.36</v>
+        <v>202029.76</v>
       </c>
     </row>
   </sheetData>
